--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1218231.210063098</v>
+        <v>1274683.526953473</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797155</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6379529.099811349</v>
+        <v>6869025.804703558</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>359.8133901984305</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>173.115048841642</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.1526410376668</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>349.8195533678792</v>
+        <v>63.50617658620671</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1063,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>122.9742767430572</v>
+        <v>210.1409105078477</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1133,25 +1135,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>430.4313829879808</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>131.6793655011344</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1294,13 +1296,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1351,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>204.101985211039</v>
+        <v>78.3774439051063</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1370,22 +1372,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>175.0349193669817</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1433,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>181.5456653663452</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617048</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>10.1507312021315</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>249.1363486468108</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>94.21878984361688</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.3456594571958</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1847,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>103.3456594571955</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2093,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>75.86622810093569</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738382</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2482,10 +2484,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>43.70143389869422</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454844</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>157.8824880649885</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U31" t="n">
-        <v>27.07950026194645</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3190,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>20.56754178381327</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3199,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>73.01514676193607</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -3235,10 +3237,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225841</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3557,7 +3559,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3670,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>90.30617524481251</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>18.05677735226077</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>311.2452626149561</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3752,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>107.8209503044959</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>82.15263531037809</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.7876113208415</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>167.3665460298589</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225758</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>193.8659438253731</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1560.335719634342</v>
+        <v>791.4099871095563</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.193246817765</v>
+        <v>427.9621182222527</v>
       </c>
       <c r="D2" t="n">
-        <v>1090.323866032614</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E2" t="n">
-        <v>656.5491211909091</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F2" t="n">
-        <v>228.6816916001168</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4346,10 +4348,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4358,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V2" t="n">
-        <v>2410.838523748444</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="W2" t="n">
-        <v>2410.023473199882</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X2" t="n">
-        <v>1990.881009779192</v>
+        <v>1625.995681294811</v>
       </c>
       <c r="Y2" t="n">
-        <v>1582.594886078846</v>
+        <v>1217.709557594464</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4403,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862856</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862856</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O3" t="n">
-        <v>714.2412710704069</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1699.639650578398</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1043.799427915185</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>871.2377163984103</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1678.133681136787</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1432.7419264702</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1235.618046634173</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>893.9996686250441</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C5" t="n">
-        <v>540.6465844150651</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D5" t="n">
-        <v>508.7772036299137</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>479.0428628286129</v>
+        <v>77.64503145187678</v>
       </c>
       <c r="F5" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M5" t="n">
-        <v>1375.081325612185</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N5" t="n">
-        <v>2035.921380153963</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="O5" t="n">
-        <v>2035.921380153963</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P5" t="n">
-        <v>2035.921380153963</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739146</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1743.687422190584</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1324.544958769894</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>916.2588350695479</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4640,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J6" t="n">
-        <v>277.7880908295411</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K6" t="n">
-        <v>277.7880908295411</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L6" t="n">
-        <v>277.7880908295411</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M6" t="n">
-        <v>277.7880908295411</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N6" t="n">
-        <v>938.6281453713194</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O6" t="n">
-        <v>1599.468199913098</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1043.799427915185</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C7" t="n">
-        <v>871.2377163984103</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D7" t="n">
-        <v>705.359723599933</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E7" t="n">
-        <v>535.6017198506702</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4753,22 +4755,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2545.844385276825</v>
+        <v>2457.797280463905</v>
       </c>
       <c r="U7" t="n">
-        <v>2267.41138452993</v>
+        <v>2179.364279717011</v>
       </c>
       <c r="V7" t="n">
-        <v>1980.45587640036</v>
+        <v>1892.408771587441</v>
       </c>
       <c r="W7" t="n">
-        <v>1708.429471986652</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X7" t="n">
-        <v>1463.037717320064</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y7" t="n">
-        <v>1235.618046634173</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>977.6515424412072</v>
+        <v>2323.91972945501</v>
       </c>
       <c r="C8" t="n">
-        <v>542.872367705873</v>
+        <v>1885.777256638433</v>
       </c>
       <c r="D8" t="n">
-        <v>511.0029869207216</v>
+        <v>1449.867471812878</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>1016.092726971173</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>588.2252973803807</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>186.8274660036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
@@ -4814,40 +4816,40 @@
         <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
+        <v>1149.495958523325</v>
+      </c>
+      <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
-      <c r="O8" t="n">
-        <v>1954.407975719776</v>
-      </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621483</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="V8" t="n">
-        <v>1828.15434655531</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="W8" t="n">
-        <v>1423.298891966343</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X8" t="n">
-        <v>1004.156428545654</v>
+        <v>2350.424615559456</v>
       </c>
       <c r="Y8" t="n">
-        <v>999.910708885711</v>
+        <v>2346.178895899513</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4899,10 +4901,10 @@
         <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1599.468199913098</v>
+        <v>1605.602207829153</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>966.5813843420327</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C10" t="n">
-        <v>794.0196728252577</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -4957,7 +4959,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2402.763558715255</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2124.330557968361</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.375049838791</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1631.211428413499</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X10" t="n">
-        <v>1385.819673746912</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y10" t="n">
-        <v>1158.40000306102</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>457.9410204063738</v>
+        <v>2408.082100998616</v>
       </c>
       <c r="C11" t="n">
-        <v>457.9410204063738</v>
+        <v>1969.93962818204</v>
       </c>
       <c r="D11" t="n">
-        <v>457.9410204063738</v>
+        <v>1534.029843356484</v>
       </c>
       <c r="E11" t="n">
-        <v>457.9410204063738</v>
+        <v>1100.255098514779</v>
       </c>
       <c r="F11" t="n">
-        <v>457.9410204063738</v>
+        <v>672.3876689239869</v>
       </c>
       <c r="G11" t="n">
-        <v>56.54318902963762</v>
+        <v>270.9898375472508</v>
       </c>
       <c r="H11" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171366</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="K11" t="n">
-        <v>56.12639965677763</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L11" t="n">
-        <v>176.1286096224173</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M11" t="n">
-        <v>870.6928053750404</v>
+        <v>3160.228192740442</v>
       </c>
       <c r="N11" t="n">
-        <v>1565.257001127664</v>
+        <v>3708.325299372377</v>
       </c>
       <c r="O11" t="n">
-        <v>1565.257001127664</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="P11" t="n">
-        <v>2259.821196880287</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="Q11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.668109022718</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="T11" t="n">
-        <v>2502.600881895757</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="U11" t="n">
-        <v>2243.378579212774</v>
+        <v>4429.2826632597</v>
       </c>
       <c r="V11" t="n">
-        <v>1880.7616291466</v>
+        <v>4066.665713193526</v>
       </c>
       <c r="W11" t="n">
-        <v>1475.906174557633</v>
+        <v>3661.81025860456</v>
       </c>
       <c r="X11" t="n">
-        <v>1292.526714591628</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y11" t="n">
-        <v>884.2405908912815</v>
+        <v>2834.381671483524</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="K12" t="n">
-        <v>330.2377696303402</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.801965382963</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="M12" t="n">
-        <v>1024.801965382963</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="N12" t="n">
-        <v>1024.801965382963</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="O12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>906.6224367337088</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C13" t="n">
-        <v>734.0607252169337</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D13" t="n">
-        <v>568.1827324184565</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E13" t="n">
-        <v>398.4247286691938</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F13" t="n">
-        <v>221.71767463095</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2654.546840516893</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2408.667394095348</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2130.234393348453</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>1843.278885218884</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.252480805175</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1325.860726138588</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.441055452696</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>896.0834932229504</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>457.9410204063738</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>457.9410204063738</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>457.9410204063738</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>457.9410204063738</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>56.54318902963762</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171366</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>491.3810871096955</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>491.3810871096955</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>1185.945282862319</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>1396.102936374607</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.66713212723</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.85309212652</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999559</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316575</v>
       </c>
       <c r="V14" t="n">
-        <v>2554.667105417861</v>
+        <v>3762.946612250402</v>
       </c>
       <c r="W14" t="n">
-        <v>2149.811650828894</v>
+        <v>3358.091157661435</v>
       </c>
       <c r="X14" t="n">
-        <v>1730.669187408205</v>
+        <v>2938.948694240746</v>
       </c>
       <c r="Y14" t="n">
-        <v>1322.383063707858</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723522</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.454444409171</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.454444409171</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.454444409171</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.454444409171</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>924.8616057763934</v>
+        <v>1048.655691403053</v>
       </c>
       <c r="C16" t="n">
-        <v>752.2998942596183</v>
+        <v>876.0939798862784</v>
       </c>
       <c r="D16" t="n">
-        <v>586.421901461141</v>
+        <v>710.2159870878011</v>
       </c>
       <c r="E16" t="n">
-        <v>416.6638977118783</v>
+        <v>540.4579833385383</v>
       </c>
       <c r="F16" t="n">
-        <v>239.9568436736345</v>
+        <v>363.7509293002945</v>
       </c>
       <c r="G16" t="n">
-        <v>144.7863488821023</v>
+        <v>198.1596543261222</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2672.786009559577</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2426.906563138033</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2148.473562391138</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>1861.518054261568</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W16" t="n">
-        <v>1589.49164984786</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X16" t="n">
-        <v>1344.099895181272</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="Y16" t="n">
-        <v>1116.680224495381</v>
+        <v>1240.474310122041</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5497,16 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5522,19 +5524,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5698,19 +5700,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
         <v>1371.99516675259</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5750,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3575.440564248059</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C22" t="n">
-        <v>3402.878852731284</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D22" t="n">
-        <v>3237.000859932806</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E22" t="n">
-        <v>3067.242856183544</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F22" t="n">
-        <v>2890.5358021453</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G22" t="n">
-        <v>2724.944527171127</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H22" t="n">
-        <v>2585.042352861502</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636178</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800867</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372003</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L22" t="n">
         <v>3275.930425139968</v>
@@ -5932,28 +5934,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S22" t="n">
-        <v>5036.409459901673</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T22" t="n">
-        <v>4790.530013480128</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U22" t="n">
-        <v>4512.097012733234</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V22" t="n">
-        <v>4512.097012733234</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="W22" t="n">
-        <v>4240.070608319525</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X22" t="n">
-        <v>3994.678853652938</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y22" t="n">
-        <v>3767.259182967046</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>407.7542895545774</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6184,13 +6186,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1601.005850966132</v>
       </c>
       <c r="M26" t="n">
-        <v>2837.977298779171</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N26" t="n">
-        <v>3963.708282215618</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>4943.887948785924</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6415,19 +6417,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2292.381813755403</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>2005.426305625833</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,19 +6472,19 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>3137.402081918264</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>4117.581748488571</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4945.891623321967</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4945.891623321967</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1041.416826573035</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>868.8551150562604</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>702.9771222577831</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
         <v>190.9207894961043</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U31" t="n">
-        <v>2265.02878318778</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1978.07327505821</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1706.046870644502</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.655115977914</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1233.235445292023</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6783,16 +6785,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P33" t="n">
         <v>1765.500601749588</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1036.216302815308</v>
+        <v>3343.699788461171</v>
       </c>
       <c r="C34" t="n">
-        <v>863.6545912985331</v>
+        <v>3171.138076944395</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>3005.260084145918</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>2835.502080396655</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>2658.795026358412</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="T34" t="n">
-        <v>2538.261260176947</v>
+        <v>4845.744745822809</v>
       </c>
       <c r="U34" t="n">
-        <v>2259.828259430053</v>
+        <v>4567.311745075915</v>
       </c>
       <c r="V34" t="n">
-        <v>1972.872751300483</v>
+        <v>4280.356236946345</v>
       </c>
       <c r="W34" t="n">
-        <v>1700.846346886775</v>
+        <v>4008.329832532637</v>
       </c>
       <c r="X34" t="n">
-        <v>1455.454592220187</v>
+        <v>3762.938077866049</v>
       </c>
       <c r="Y34" t="n">
-        <v>1228.034921534295</v>
+        <v>3535.518407180158</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>1134.430677610025</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2291.478512820576</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>3417.209496257023</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3365.117609755799</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>3192.555898239023</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>3026.677905440546</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>2856.919901691283</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>2680.21284765304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>2514.621572678867</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>4867.162567117437</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>4588.729566370543</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>4301.774058240973</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>4029.747653827265</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>3784.355899160677</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>3556.936228474786</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7160,49 +7162,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912873</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903985</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736235</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751462</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258834</v>
       </c>
       <c r="F40" t="n">
-        <v>190.9207894961043</v>
+        <v>286.0912842876396</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134673</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7351,31 +7353,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752038</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.652494875573</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109386</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1791.820831731407</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>1353.67835891483</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>917.7685740892747</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>483.9938292475699</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>56.12639965677763</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677763</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1185.945282862319</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1185.945282862319</v>
+        <v>3144.542240397636</v>
       </c>
       <c r="N41" t="n">
-        <v>1185.945282862319</v>
+        <v>3144.542240397636</v>
       </c>
       <c r="O41" t="n">
-        <v>1565.257001127664</v>
+        <v>3144.542240397636</v>
       </c>
       <c r="P41" t="n">
-        <v>2259.821196880287</v>
+        <v>3972.852115231032</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4519.350901189627</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="T41" t="n">
-        <v>2586.25275571192</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="U41" t="n">
-        <v>2327.030453028937</v>
+        <v>4429.2826632597</v>
       </c>
       <c r="V41" t="n">
-        <v>2327.030453028937</v>
+        <v>4066.665713193526</v>
       </c>
       <c r="W41" t="n">
-        <v>2218.120402216315</v>
+        <v>3661.81025860456</v>
       </c>
       <c r="X41" t="n">
-        <v>2218.120402216315</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y41" t="n">
-        <v>2218.120402216315</v>
+        <v>2834.381671483524</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>82.19007281723522</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>82.19007281723522</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>776.7542685698584</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>907.6291872886236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>907.6291872886236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1052.57574520396</v>
+        <v>2940.5805621595</v>
       </c>
       <c r="C43" t="n">
-        <v>880.0140336871845</v>
+        <v>2768.018850642725</v>
       </c>
       <c r="D43" t="n">
-        <v>714.1360408887072</v>
+        <v>2602.140857844248</v>
       </c>
       <c r="E43" t="n">
-        <v>544.3780371394444</v>
+        <v>2432.382854094985</v>
       </c>
       <c r="F43" t="n">
-        <v>367.6709831012006</v>
+        <v>2255.675800056742</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>2090.084525082569</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>2071.845356039884</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>2071.845356039884</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>2158.425041204574</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>2433.18349577571</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>2851.39337754367</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>3310.877244724583</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>3753.136047882228</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>4172.805297108009</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>4520.312191078351</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.665194436029</v>
+        <v>4442.625519521139</v>
       </c>
       <c r="U43" t="n">
-        <v>1989.232193689134</v>
+        <v>4164.192518774244</v>
       </c>
       <c r="V43" t="n">
-        <v>1989.232193689134</v>
+        <v>3877.237010644675</v>
       </c>
       <c r="W43" t="n">
-        <v>1717.205789275426</v>
+        <v>3605.210606230967</v>
       </c>
       <c r="X43" t="n">
-        <v>1471.814034608838</v>
+        <v>3359.818851564379</v>
       </c>
       <c r="Y43" t="n">
-        <v>1244.394363922947</v>
+        <v>3132.399180878488</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1791.820831731407</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>1353.67835891483</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>917.7685740892747</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>483.9938292475699</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>56.12639965677763</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171366</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1880.509478614942</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M44" t="n">
-        <v>1880.509478614942</v>
+        <v>2520.422913940501</v>
       </c>
       <c r="N44" t="n">
-        <v>1880.509478614942</v>
+        <v>2520.422913940501</v>
       </c>
       <c r="O44" t="n">
-        <v>2575.073674367565</v>
+        <v>3313.696305150692</v>
       </c>
       <c r="P44" t="n">
-        <v>2637.165918085825</v>
+        <v>4142.006179984089</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942683</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.85309212652</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838882</v>
+        <v>4395.976717054963</v>
       </c>
       <c r="U44" t="n">
-        <v>2806.319982838882</v>
+        <v>4136.75441437198</v>
       </c>
       <c r="V44" t="n">
-        <v>2806.319982838882</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="W44" t="n">
-        <v>2806.319982838882</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X44" t="n">
-        <v>2387.177519418192</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2218.120402216315</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351366</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188008</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334561</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661515</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.81587354386</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360073</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486743</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1493.702219486743</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1493.702219486743</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.702219486743</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1493.702219486743</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1493.702219486743</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744542</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838882</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287265</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617835</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679834</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413028</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651908</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431129</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1135.184560268659</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C46" t="n">
-        <v>962.6228487518839</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D46" t="n">
-        <v>796.7448559534066</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E46" t="n">
-        <v>626.9868522041439</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F46" t="n">
-        <v>450.2797981659001</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G46" t="n">
-        <v>284.6885231917278</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885367</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2513.544640857574</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2267.665194436029</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U46" t="n">
-        <v>2071.841008753834</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.841008753834</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W46" t="n">
-        <v>1799.814604340125</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.422849673538</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.003178987646</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7984,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8055,10 +8057,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>17.17305800913095</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8219,25 +8221,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q5" t="n">
-        <v>469.682203560008</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8462,13 +8464,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174595</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>121.2143535006462</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5799957097204</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097204</v>
+        <v>553.6334410423588</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8769,19 +8771,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>276.8801716904672</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>446.0407874304765</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>715.8552653209144</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>387.209503997221</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>671.1057765021969</v>
       </c>
       <c r="M26" t="n">
-        <v>395.0015281256929</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>168.8387779969835</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.093094960597241e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,19 +10433,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10586,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>1042.595795292167</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10604,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>713.239591328108</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>383.1431497629746</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11138,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>132.1968875947123</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11297,28 +11299,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>801.2862537476685</v>
       </c>
       <c r="P44" t="n">
-        <v>62.71943809925187</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>111.2039336442342</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>233.4053734201372</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>411.8858435779272</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>109.854431918701</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>69.71657238081373</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>35.15749310933342</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>81.78272691404761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>102.9863699957332</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U31" t="n">
-        <v>248.5691704774792</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>90.92021546249454</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142708</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>84.63380825304883</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142685</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>110.7913121651026</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25679,22 +25681,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>292.9859497385811</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>81.78272691405252</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>11.07894353485028</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.8367164334842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>81.78272691405257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>401906.4145876935</v>
+        <v>569436.14815564</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>401906.4145876936</v>
+        <v>569436.14815564</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>607223.3896393365</v>
+        <v>607223.3896393364</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>401906.4145876934</v>
+        <v>569436.14815564</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>401906.4145876935</v>
+        <v>569436.14815564</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>388706.8069205461</v>
+      </c>
+      <c r="C2" t="n">
         <v>388706.8069205462</v>
       </c>
-      <c r="C2" t="n">
-        <v>388706.8069205461</v>
-      </c>
       <c r="D2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="E2" t="n">
-        <v>252817.8237739504</v>
+        <v>358201.8164666982</v>
       </c>
       <c r="F2" t="n">
-        <v>252817.8237739505</v>
+        <v>358201.8164666982</v>
       </c>
       <c r="G2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="H2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="I2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="J2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="K2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="L2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="N2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>252817.8237739504</v>
+        <v>358201.8164666983</v>
       </c>
       <c r="P2" t="n">
-        <v>252817.8237739504</v>
+        <v>358201.8164666982</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260783</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,16 +26426,16 @@
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>45008.0107341682</v>
+        <v>63769.04507708549</v>
       </c>
       <c r="F4" t="n">
-        <v>45008.0107341682</v>
+        <v>63769.04507708549</v>
       </c>
       <c r="G4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933281</v>
@@ -26442,22 +26444,22 @@
         <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="O4" t="n">
-        <v>45008.0107341682</v>
+        <v>63769.04507708549</v>
       </c>
       <c r="P4" t="n">
-        <v>45008.0107341682</v>
+        <v>63769.04507708549</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232878</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232878</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232878</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232878</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-65842.0574779302</v>
+        <v>-65842.05747793027</v>
       </c>
       <c r="C6" t="n">
-        <v>157857.6411061146</v>
+        <v>157857.6411061147</v>
       </c>
       <c r="D6" t="n">
-        <v>157857.6411061146</v>
+        <v>157857.6411061147</v>
       </c>
       <c r="E6" t="n">
-        <v>154982.752700175</v>
+        <v>72501.74233553605</v>
       </c>
       <c r="F6" t="n">
-        <v>165153.7493006313</v>
+        <v>223167.4959072839</v>
       </c>
       <c r="G6" t="n">
-        <v>78193.33465834585</v>
+        <v>207163.0024318473</v>
       </c>
       <c r="H6" t="n">
         <v>236252.8116044551</v>
@@ -26543,25 +26545,25 @@
         <v>236252.8116044551</v>
       </c>
       <c r="J6" t="n">
-        <v>61601.46288674886</v>
+        <v>61601.46288674889</v>
       </c>
       <c r="K6" t="n">
+        <v>236252.8116044551</v>
+      </c>
+      <c r="L6" t="n">
+        <v>236252.8116044551</v>
+      </c>
+      <c r="M6" t="n">
+        <v>110501.7232687644</v>
+      </c>
+      <c r="N6" t="n">
         <v>236252.811604455</v>
       </c>
-      <c r="L6" t="n">
-        <v>236252.811604455</v>
-      </c>
-      <c r="M6" t="n">
-        <v>227763.7299011142</v>
-      </c>
-      <c r="N6" t="n">
-        <v>236252.8116044552</v>
-      </c>
       <c r="O6" t="n">
-        <v>165153.7493006312</v>
+        <v>223167.495907284</v>
       </c>
       <c r="P6" t="n">
-        <v>165153.7493006312</v>
+        <v>223167.495907284</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778137</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990745</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778137</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778137</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990745</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>73.94765788998041</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>224.2688042213267</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.992832941366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>83.94149472053175</v>
+        <v>370.2548715022042</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>120.4463752142721</v>
+        <v>33.27974144948155</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27853,70 +27855,70 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>3.329665100430077</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>154.5594875100815</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>256.6300796561533</v>
+      </c>
+      <c r="V8" t="n">
+        <v>358.9907805655117</v>
+      </c>
+      <c r="W8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>397.3838530629687</v>
-      </c>
-      <c r="H8" t="n">
-        <v>286.2388530112159</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.4126214791313976</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>82.81535507800136</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28014,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>65.20415515853239</v>
+        <v>190.9286964644651</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.366831715029562e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28986,7 +28988,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -34702,7 +34704,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>17.17305800913095</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34939,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078568</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q5" t="n">
-        <v>469.682203560008</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35182,13 +35184,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35267,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174595</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>121.2143535006462</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5799957097204</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097204</v>
+        <v>553.6334410423588</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>276.8801716904672</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>446.0407874304765</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>715.8552653209144</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35890,22 +35892,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>387.209503997221</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,10 +36281,10 @@
         <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080455</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36364,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>671.1057765021969</v>
       </c>
       <c r="M26" t="n">
-        <v>395.0015281256929</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,22 +36840,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831382</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>168.8387779969835</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.0912429034652e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>1042.595795292167</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37324,10 +37326,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37719,7 +37721,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821575</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>713.239591328108</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>383.1431497629746</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>132.1968875947123</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960968</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080414</v>
@@ -37950,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097206</v>
+        <v>801.2862537476685</v>
       </c>
       <c r="P44" t="n">
-        <v>62.71943809925187</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1274683.526953473</v>
+        <v>1274077.439324576</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074004</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797155</v>
+        <v>606553.2040797166</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6869025.804703558</v>
+        <v>6869025.804703556</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>359.8133901984305</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>73.62552491720905</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>137.8834167598883</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -867,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>13.99728392830462</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -898,13 +898,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>63.50617658620671</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>100.1913453255714</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>210.1409105078477</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1135,7 +1135,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1150,10 +1150,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>131.6793655011344</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>275.4619073241115</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1302,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1353,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>78.3774439051063</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1378,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>17.5511538153596</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>175.0349193669817</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1539,10 +1539,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513559</v>
       </c>
       <c r="G13" t="n">
-        <v>24.3431845617048</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.1507312021315</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1618,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>11.70291171695604</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1773,19 +1773,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.3456594571958</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>123.7760609888577</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1861,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>153.2006427344284</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2259,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4356504767625</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>166.3197703738382</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2538,10 +2538,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>125.1716544454844</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>3.139541480022588</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>48.25041423584356</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2970,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>73.01514676193607</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>164.9135579823487</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735226077</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>311.2452626149561</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3757,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>92.21956428897897</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3906,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225841</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>53.90045570694573</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.7876113208415</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>145.83876749105</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4143,7 +4143,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225758</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4194,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>174.0510465307891</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>791.4099871095563</v>
+        <v>1674.185399119638</v>
       </c>
       <c r="C2" t="n">
-        <v>427.9621182222527</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D2" t="n">
-        <v>396.0927374371013</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E2" t="n">
-        <v>366.3583966358005</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F2" t="n">
         <v>342.5313710854123</v>
@@ -4324,19 +4324,19 @@
         <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
+        <v>488.6559039815464</v>
+      </c>
+      <c r="L2" t="n">
         <v>1149.495958523325</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
         <v>1293.567921177998</v>
@@ -4348,10 +4348,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304467</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304467</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.993599304467</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W2" t="n">
-        <v>2045.1381447155</v>
+        <v>2189.95624607292</v>
       </c>
       <c r="X2" t="n">
-        <v>1625.995681294811</v>
+        <v>2174.854186692635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1217.709557594464</v>
+        <v>2100.484969604545</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>1699.639650578398</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>933.2958513705994</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>933.2958513705994</v>
       </c>
       <c r="D4" t="n">
         <v>794.0196728252577</v>
@@ -4485,22 +4485,22 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.477214236518</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="C5" t="n">
-        <v>947.3295611191371</v>
+        <v>614.758195394171</v>
       </c>
       <c r="D5" t="n">
-        <v>511.4197762935816</v>
+        <v>178.8484105686155</v>
       </c>
       <c r="E5" t="n">
-        <v>77.64503145187678</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1375.081325612186</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>2035.921380153964</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4603,16 +4603,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.776784721425</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>955.7523231022661</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>783.1906115854911</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>617.3126187870138</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>447.554615037751</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2457.797280463905</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2179.364279717011</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1892.408771587441</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1620.382367173733</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1374.990612507145</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1147.570941821253</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2323.91972945501</v>
+        <v>1786.45307593959</v>
       </c>
       <c r="C8" t="n">
-        <v>1885.777256638433</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>1449.867471812878</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>1016.092726971173</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>588.2252973803807</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>186.8274660036445</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488304</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.341725488304</v>
+        <v>1828.875071972884</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.526674939741</v>
+        <v>1828.060021424322</v>
       </c>
       <c r="X8" t="n">
-        <v>2350.424615559456</v>
+        <v>1812.957962044036</v>
       </c>
       <c r="Y8" t="n">
-        <v>2346.178895899513</v>
+        <v>1808.712242384094</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4886,25 +4886,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1605.602207829153</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955.7523231022661</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>783.1906115854911</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>617.3126187870138</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>447.554615037751</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -4959,7 +4959,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4989,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431416</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1620.382367173733</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1374.990612507145</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1147.570941821253</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2408.082100998616</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C11" t="n">
-        <v>1969.93962818204</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D11" t="n">
-        <v>1534.029843356484</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E11" t="n">
-        <v>1100.255098514779</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>672.3876689239869</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>270.9898375472508</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171366</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>93.77009931885367</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2003.180357529891</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>3160.228192740442</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>3708.325299372377</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>4688.504965942683</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P11" t="n">
-        <v>4688.504965942683</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942683</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>4688.504965942683</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>4429.2826632597</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>4066.665713193526</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>3661.81025860456</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>3242.667795183871</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>2834.381671483524</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,46 +5114,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885367</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>1254.175078389668</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5187,16 +5187,16 @@
         <v>295.0662286719508</v>
       </c>
       <c r="F13" t="n">
-        <v>118.359174633707</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.266833883286</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.357049057731</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.582304216026</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F14" t="n">
         <v>784.7148746252335</v>
@@ -5272,10 +5272,10 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171366</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
         <v>529.0247867717716</v>
@@ -5293,34 +5293,34 @@
         <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>3418.614711553115</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>4246.924586386512</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.85309212652</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999559</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316575</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250402</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661435</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240746</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y14" t="n">
         <v>2530.662570540399</v>
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,46 +5351,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885367</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885367</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1048.313148129957</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1048.313148129957</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1048.313148129957</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1048.655691403053</v>
+        <v>837.4789812073</v>
       </c>
       <c r="C16" t="n">
-        <v>876.0939798862784</v>
+        <v>664.9172696905249</v>
       </c>
       <c r="D16" t="n">
-        <v>710.2159870878011</v>
+        <v>499.0392768920476</v>
       </c>
       <c r="E16" t="n">
-        <v>540.4579833385383</v>
+        <v>499.0392768920476</v>
       </c>
       <c r="F16" t="n">
-        <v>363.7509293002945</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="G16" t="n">
-        <v>198.1596543261222</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885367</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5463,25 +5463,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2551.18834051965</v>
+        <v>2585.403384990484</v>
       </c>
       <c r="T16" t="n">
-        <v>2305.308894098105</v>
+        <v>2339.523938568939</v>
       </c>
       <c r="U16" t="n">
-        <v>2026.87589335121</v>
+        <v>2061.090937822044</v>
       </c>
       <c r="V16" t="n">
-        <v>1739.920385221641</v>
+        <v>1774.135429692475</v>
       </c>
       <c r="W16" t="n">
-        <v>1467.893980807932</v>
+        <v>1502.109025278766</v>
       </c>
       <c r="X16" t="n">
-        <v>1467.893980807932</v>
+        <v>1256.717270612179</v>
       </c>
       <c r="Y16" t="n">
-        <v>1240.474310122041</v>
+        <v>1029.297599926287</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,19 +5524,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5764,19 +5764,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3575.440564248063</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>3402.878852731288</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>3237.000859932811</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>3067.242856183548</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>2890.535802145304</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>2724.944527171132</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.070376373911</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="V22" t="n">
-        <v>4408.070376373911</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W22" t="n">
-        <v>4240.070608319529</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X22" t="n">
-        <v>3994.678853652942</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>3767.25918296705</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1601.005850966132</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>2758.053686176683</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6375,7 +6375,7 @@
         <v>105.4320942910045</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6466,19 +6466,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
         <v>5113.04201353898</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6706,10 +6706,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3343.699788461171</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>3171.138076944395</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>3005.260084145918</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>2835.502080396655</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>2658.795026358412</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>2585.042352861507</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>4845.744745822809</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>4567.311745075915</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>4280.356236946345</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>4008.329832532637</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>3762.938077866049</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>3535.518407180158</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6940,22 +6940,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -7013,10 +7013,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7201,10 +7201,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912873</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903985</v>
+        <v>949.57822509577</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736235</v>
+        <v>777.0165135789949</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751462</v>
+        <v>611.1385207805176</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258834</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>286.0912842876396</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134673</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7338,46 +7338,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745692</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173583</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173583</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752038</v>
+        <v>2451.623182457409</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005143</v>
+        <v>2173.190181710514</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.652494875573</v>
+        <v>1886.234673580945</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461865</v>
+        <v>1614.208269167236</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795278</v>
+        <v>1368.816514500649</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109386</v>
+        <v>1141.396843814757</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2519.992517327003</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C41" t="n">
-        <v>2081.850044510426</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D41" t="n">
-        <v>1645.940259684871</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.165514843166</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885367</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
         <v>529.0247867717716</v>
@@ -7420,43 +7420,43 @@
         <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>3144.542240397636</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>3144.542240397636</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397636</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231032</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189627</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942683</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>4688.504965942683</v>
+        <v>4511.702017087146</v>
       </c>
       <c r="U41" t="n">
-        <v>4429.2826632597</v>
+        <v>4252.479714404163</v>
       </c>
       <c r="V41" t="n">
-        <v>4066.665713193526</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W41" t="n">
-        <v>3661.81025860456</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X41" t="n">
-        <v>3242.667795183871</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y41" t="n">
-        <v>2834.381671483524</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,7 +7484,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
         <v>119.8337724793113</v>
@@ -7514,16 +7514,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2940.5805621595</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C43" t="n">
-        <v>2768.018850642725</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D43" t="n">
-        <v>2602.140857844248</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E43" t="n">
-        <v>2432.382854094985</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="F43" t="n">
-        <v>2255.675800056742</v>
+        <v>288.1171783829698</v>
       </c>
       <c r="G43" t="n">
-        <v>2090.084525082569</v>
+        <v>288.1171783829698</v>
       </c>
       <c r="H43" t="n">
-        <v>2071.845356039884</v>
+        <v>148.2150040733443</v>
       </c>
       <c r="I43" t="n">
-        <v>2071.845356039884</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>2158.425041204574</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>2433.18349577571</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>2851.39337754367</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>3310.877244724583</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>3753.136047882228</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>4172.805297108009</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>4520.312191078351</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>4688.504965942683</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>4688.504965942683</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>4688.504965942683</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>4442.625519521139</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>4164.192518774244</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V43" t="n">
-        <v>3877.237010644675</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W43" t="n">
-        <v>3605.210606230967</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X43" t="n">
-        <v>3359.818851564379</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y43" t="n">
-        <v>3132.399180878488</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.409306699863</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.266833883286</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.357049057731</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.582304216026</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>784.7148746252335</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>383.3170432484974</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171366</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
         <v>529.0247867717716</v>
@@ -7654,46 +7654,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>2520.422913940501</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2520.422913940501</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3313.696305150692</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>4142.006179984089</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942683</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.85309212652</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>4395.976717054963</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U44" t="n">
-        <v>4136.75441437198</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V44" t="n">
-        <v>3774.137464305806</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W44" t="n">
-        <v>3774.137464305806</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.995000885117</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.70887718477</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>962.5053054384693</v>
+        <v>914.4103069561476</v>
       </c>
       <c r="C46" t="n">
-        <v>789.9435939216943</v>
+        <v>741.8485954393725</v>
       </c>
       <c r="D46" t="n">
-        <v>624.065601123217</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="E46" t="n">
-        <v>454.3075973739543</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F46" t="n">
-        <v>277.6005433357104</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G46" t="n">
-        <v>112.0092683615381</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885367</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7833,25 +7833,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2710.429709221653</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2464.550262800109</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2186.117262053214</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V46" t="n">
-        <v>1899.161753923644</v>
+        <v>1851.066755441322</v>
       </c>
       <c r="W46" t="n">
-        <v>1627.135349509936</v>
+        <v>1579.040351027614</v>
       </c>
       <c r="X46" t="n">
-        <v>1381.743594843348</v>
+        <v>1333.648596361026</v>
       </c>
       <c r="Y46" t="n">
-        <v>1154.323924157457</v>
+        <v>1106.228925675135</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L2" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>17.17305800913095</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174595</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8698,19 +8698,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>553.6334410423588</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>446.0407874304765</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>715.8552653209144</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>387.209503997221</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>671.1057765021969</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10126,7 +10126,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,25 +10588,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>713.239591328108</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11302,16 +11302,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>801.2862537476685</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>111.2039336442342</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>411.8858435779272</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>411.8858435779283</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>35.15749310933342</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>33.87289402612562</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>122.4480280049973</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>15.21302026266318</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>102.9863699957332</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>141.6500182959537</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>90.92021546249454</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3.146865729421421</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142685</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>110.7913121651026</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>125.6469905667128</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142708</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>33.87289402612569</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>11.07894353485028</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>110.7913121651032</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>110.0349065174847</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>569436.14815564</v>
+        <v>569436.1481556399</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>569436.14815564</v>
+        <v>569436.1481556399</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>607223.3896393364</v>
+        <v>607223.3896393362</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>607223.3896393364</v>
+        <v>607223.3896393362</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>607223.3896393364</v>
+        <v>607223.3896393365</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>569436.14815564</v>
+        <v>569436.1481556399</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>388706.8069205462</v>
+      </c>
+      <c r="C2" t="n">
         <v>388706.8069205461</v>
-      </c>
-      <c r="C2" t="n">
-        <v>388706.8069205462</v>
       </c>
       <c r="D2" t="n">
         <v>388706.8069205462</v>
       </c>
       <c r="E2" t="n">
-        <v>358201.8164666982</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="F2" t="n">
-        <v>358201.8164666982</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="G2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="H2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="I2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="J2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="K2" t="n">
         <v>381971.7484995804</v>
@@ -26352,7 +26352,7 @@
         <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>358201.8164666983</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="P2" t="n">
         <v>358201.8164666982</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260783</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>63769.04507708549</v>
+        <v>63769.04507708548</v>
       </c>
       <c r="F4" t="n">
-        <v>63769.04507708549</v>
+        <v>63769.04507708548</v>
       </c>
       <c r="G4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="H4" t="n">
         <v>68000.69828933281</v>
-      </c>
-      <c r="H4" t="n">
-        <v>68000.69828933282</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933281</v>
@@ -26444,7 +26444,7 @@
         <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933281</v>
@@ -26456,10 +26456,10 @@
         <v>68000.69828933282</v>
       </c>
       <c r="O4" t="n">
-        <v>63769.04507708549</v>
+        <v>63769.04507708548</v>
       </c>
       <c r="P4" t="n">
-        <v>63769.04507708549</v>
+        <v>63769.04507708548</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232878</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-65842.05747793027</v>
+        <v>-65842.05747793014</v>
       </c>
       <c r="C6" t="n">
-        <v>157857.6411061147</v>
+        <v>157857.6411061146</v>
       </c>
       <c r="D6" t="n">
         <v>157857.6411061147</v>
       </c>
       <c r="E6" t="n">
-        <v>72501.74233553605</v>
+        <v>72396.55271328136</v>
       </c>
       <c r="F6" t="n">
-        <v>223167.4959072839</v>
+        <v>223062.3062850292</v>
       </c>
       <c r="G6" t="n">
-        <v>207163.0024318473</v>
+        <v>207139.7780924645</v>
       </c>
       <c r="H6" t="n">
-        <v>236252.8116044551</v>
+        <v>236229.5872650724</v>
       </c>
       <c r="I6" t="n">
-        <v>236252.8116044551</v>
+        <v>236229.5872650724</v>
       </c>
       <c r="J6" t="n">
-        <v>61601.46288674889</v>
+        <v>61578.23854736622</v>
       </c>
       <c r="K6" t="n">
-        <v>236252.8116044551</v>
+        <v>236229.5872650724</v>
       </c>
       <c r="L6" t="n">
-        <v>236252.8116044551</v>
+        <v>236229.5872650725</v>
       </c>
       <c r="M6" t="n">
-        <v>110501.7232687644</v>
+        <v>110478.4989293817</v>
       </c>
       <c r="N6" t="n">
-        <v>236252.811604455</v>
+        <v>236229.5872650725</v>
       </c>
       <c r="O6" t="n">
-        <v>223167.495907284</v>
+        <v>223062.3062850292</v>
       </c>
       <c r="P6" t="n">
-        <v>223167.495907284</v>
+        <v>223062.3062850293</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1172.126241485671</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778137</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990745</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778137</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778137</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990745</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>73.94765788998041</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>330.577737546134</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>26.33579611060421</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>370.2548715022042</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>329.2456520677164</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27675,7 +27675,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>33.27974144948155</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>154.5594875100815</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>83.52887324140022</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>190.9286964644651</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -34701,13 +34701,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L2" t="n">
-        <v>145.5272350047208</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>17.17305800913095</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174595</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>553.6334410423588</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35661,13 +35661,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>446.0407874304765</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>715.8552653209144</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35892,22 +35892,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>387.209503997221</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>671.1057765021969</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37074,13 +37074,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080447</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37721,7 +37721,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821575</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>713.239591328108</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>801.2862537476685</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
